--- a/Week3_NFL/Promising_DK.xlsx
+++ b/Week3_NFL/Promising_DK.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="27555" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="-35340" yWindow="3520" windowWidth="27560" windowHeight="13000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Promising" sheetId="1" r:id="rId1"/>
     <sheet name="Supers" sheetId="2" r:id="rId2"/>
     <sheet name="Vegas Line" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -961,7 +966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,9 +1126,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1469,7 +1478,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1484,6 +1493,8 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1833,13 +1844,13 @@
       <selection activeCell="G30" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1897,7 +1908,7 @@
         <v>-5.6666666666666497E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1926,7 +1937,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1966,7 @@
         <v>-2.6666666666666601E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1984,7 +1995,7 @@
         <v>-9.9999999999999898E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +2024,7 @@
         <v>-3.3333333333333201E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2042,7 +2053,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2071,7 +2082,7 @@
         <v>-1.19999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2100,7 +2111,7 @@
         <v>-2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2129,7 +2140,7 @@
         <v>-3.3333333333333798E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2158,7 +2169,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2187,7 +2198,7 @@
         <v>-4.3333333333333401E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2216,7 +2227,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2256,7 @@
         <v>-6.3333333333333401E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>-9.6666666666666706E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2303,7 +2314,7 @@
         <v>-1.6666666666666601E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2332,7 +2343,7 @@
         <v>-4.9999999999999897E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2361,7 +2372,7 @@
         <v>-1.6666666666666601E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2390,7 +2401,7 @@
         <v>-4.9999999999999897E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2419,7 +2430,7 @@
         <v>-6.6666666666666602E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2448,7 +2459,7 @@
         <v>-1.03333333333333E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2477,7 +2488,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>-2.6666666666666601E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2535,7 +2546,7 @@
         <v>-1.09999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>-1.33333333333333E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2593,7 +2604,7 @@
         <v>-1.63333333333333E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2622,7 +2633,7 @@
         <v>-1.2999999999999901E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2651,7 +2662,7 @@
         <v>-2.6666666666666599E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2680,7 +2691,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2709,7 +2720,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2738,7 +2749,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2767,7 +2778,7 @@
         <v>-5.3333333333333401E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -2796,7 +2807,7 @@
         <v>-2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -2825,7 +2836,7 @@
         <v>-2.2333333333333299E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2854,7 +2865,7 @@
         <v>-1.26666666666666E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -2883,7 +2894,7 @@
         <v>-4.6666666666666601E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2912,7 +2923,7 @@
         <v>-2.33333333333333E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>-2.4999999999999901E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2970,7 +2981,7 @@
         <v>-6.6666666666666602E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -3028,7 +3039,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3057,7 +3068,7 @@
         <v>-6.6666666666666602E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -3086,7 +3097,7 @@
         <v>-9.9999999999999898E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -3115,7 +3126,7 @@
         <v>-1.03333333333333E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -3144,7 +3155,7 @@
         <v>-1.39999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -3173,7 +3184,7 @@
         <v>-1.23333333333333E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -3202,7 +3213,7 @@
         <v>-1.39999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -3231,7 +3242,7 @@
         <v>-1.39999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3260,7 +3271,7 @@
         <v>-4.3333333333333401E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -3289,7 +3300,7 @@
         <v>-1.26666666666666E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -3318,7 +3329,7 @@
         <v>-1.43333333333333E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -3347,7 +3358,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -3376,7 +3387,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -3405,7 +3416,7 @@
         <v>-1.63333333333333E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>-1.1333333333333299E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -3463,7 +3474,7 @@
         <v>-1.63333333333333E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3492,7 +3503,7 @@
         <v>-1.99999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3521,7 +3532,7 @@
         <v>-1.6666666666666601E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3550,7 +3561,7 @@
         <v>-1.6666666666666601E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -3579,7 +3590,7 @@
         <v>-1.8666666666666599E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -3608,7 +3619,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3637,7 +3648,7 @@
         <v>-2.5333333333333301E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -3666,7 +3677,7 @@
         <v>-2.0333333333333301E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -3695,7 +3706,7 @@
         <v>-2.5333333333333301E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -3724,7 +3735,7 @@
         <v>-6.9999999999999897E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -3753,7 +3764,7 @@
         <v>-1.8666666666666599E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -3782,7 +3793,7 @@
         <v>-2.0333333333333301E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -3811,7 +3822,7 @@
         <v>-1.03333333333333E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -3840,7 +3851,7 @@
         <v>-1.53333333333333E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -3869,7 +3880,7 @@
         <v>-2.5333333333333301E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -3898,7 +3909,7 @@
         <v>-1.06666666666666E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -3927,7 +3938,7 @@
         <v>-2.0666666666666601E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -3956,7 +3967,7 @@
         <v>-1.06666666666666E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -3985,7 +3996,7 @@
         <v>-8.9999999999999906E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>119</v>
       </c>
@@ -4014,7 +4025,7 @@
         <v>-2.5666666666666602E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -4043,7 +4054,7 @@
         <v>-2.39999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -4072,7 +4083,7 @@
         <v>-2.0666666666666601E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>122</v>
       </c>
@@ -4101,7 +4112,7 @@
         <v>-2.73333333333333E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>123</v>
       </c>
@@ -4130,7 +4141,7 @@
         <v>-2.2333333333333299E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>124</v>
       </c>
@@ -4159,7 +4170,7 @@
         <v>-1.39999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>-2.39999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>126</v>
       </c>
@@ -4217,7 +4228,7 @@
         <v>-2.2333333333333299E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -4246,7 +4257,7 @@
         <v>-1.7333333333333301E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>128</v>
       </c>
@@ -4275,7 +4286,7 @@
         <v>-2.0666666666666601E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -4304,7 +4315,7 @@
         <v>-1.7333333333333301E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>132</v>
       </c>
@@ -4333,7 +4344,7 @@
         <v>-1.26666666666666E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>133</v>
       </c>
@@ -4362,7 +4373,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -4391,7 +4402,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>135</v>
       </c>
@@ -4420,7 +4431,7 @@
         <v>-1.7666666666666601E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -4449,7 +4460,7 @@
         <v>-1.09999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -4478,7 +4489,7 @@
         <v>-1.09999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>138</v>
       </c>
@@ -4507,7 +4518,7 @@
         <v>-1.7666666666666601E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -4536,7 +4547,7 @@
         <v>-2.4333333333333301E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -4565,7 +4576,7 @@
         <v>-1.09999999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>141</v>
       </c>
@@ -4594,7 +4605,7 @@
         <v>-1.63333333333333E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -4623,7 +4634,7 @@
         <v>-1.96666666666666E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>143</v>
       </c>
@@ -4652,7 +4663,7 @@
         <v>-1.2999999999999901E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -4681,7 +4692,7 @@
         <v>-1.63333333333333E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -4710,7 +4721,7 @@
         <v>-2.6333333333333299E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>146</v>
       </c>
@@ -4739,7 +4750,7 @@
         <v>-1.63333333333333E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -4768,7 +4779,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>148</v>
       </c>
@@ -4797,7 +4808,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -4826,7 +4837,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>150</v>
       </c>
@@ -4855,7 +4866,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>151</v>
       </c>
@@ -4884,7 +4895,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -4913,7 +4924,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>153</v>
       </c>
@@ -4942,7 +4953,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>154</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>155</v>
       </c>
@@ -5000,7 +5011,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -5029,7 +5040,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>157</v>
       </c>
@@ -5058,7 +5069,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>158</v>
       </c>
@@ -5087,7 +5098,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>160</v>
       </c>
@@ -5116,7 +5127,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -5145,7 +5156,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>162</v>
       </c>
@@ -5174,7 +5185,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>163</v>
       </c>
@@ -5203,7 +5214,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -5232,7 +5243,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -5261,7 +5272,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>166</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>167</v>
       </c>
@@ -5319,7 +5330,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>168</v>
       </c>
@@ -5348,7 +5359,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>169</v>
       </c>
@@ -5377,7 +5388,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>170</v>
       </c>
@@ -5406,7 +5417,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>171</v>
       </c>
@@ -5435,7 +5446,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>172</v>
       </c>
@@ -5464,7 +5475,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>173</v>
       </c>
@@ -5493,7 +5504,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>174</v>
       </c>
@@ -5522,7 +5533,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>175</v>
       </c>
@@ -5551,7 +5562,7 @@
         <v>-2.1666666666666601E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -5580,7 +5591,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>177</v>
       </c>
@@ -5609,7 +5620,7 @@
         <v>-2.1666666666666601E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>178</v>
       </c>
@@ -5638,7 +5649,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>179</v>
       </c>
@@ -5667,7 +5678,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>180</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>181</v>
       </c>
@@ -5725,7 +5736,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>182</v>
       </c>
@@ -5754,7 +5765,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>183</v>
       </c>
@@ -5783,7 +5794,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>184</v>
       </c>
@@ -5812,7 +5823,7 @@
         <v>-2.1666666666666601E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>185</v>
       </c>
@@ -5841,7 +5852,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -5870,7 +5881,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>187</v>
       </c>
@@ -5899,7 +5910,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>188</v>
       </c>
@@ -5928,7 +5939,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>189</v>
       </c>
@@ -5957,7 +5968,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>190</v>
       </c>
@@ -5986,7 +5997,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>191</v>
       </c>
@@ -6015,7 +6026,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>192</v>
       </c>
@@ -6044,7 +6055,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>193</v>
       </c>
@@ -6073,7 +6084,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>194</v>
       </c>
@@ -6102,7 +6113,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>195</v>
       </c>
@@ -6131,7 +6142,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>196</v>
       </c>
@@ -6160,7 +6171,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>197</v>
       </c>
@@ -6189,7 +6200,7 @@
         <v>-2.1666666666666601E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>198</v>
       </c>
@@ -6218,7 +6229,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>199</v>
       </c>
@@ -6247,7 +6258,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>200</v>
       </c>
@@ -6276,7 +6287,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>201</v>
       </c>
@@ -6305,7 +6316,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>202</v>
       </c>
@@ -6334,7 +6345,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -6363,7 +6374,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -6392,7 +6403,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>205</v>
       </c>
@@ -6421,7 +6432,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>206</v>
       </c>
@@ -6450,7 +6461,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>207</v>
       </c>
@@ -6479,7 +6490,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>208</v>
       </c>
@@ -6508,7 +6519,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>209</v>
       </c>
@@ -6537,7 +6548,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>210</v>
       </c>
@@ -6566,7 +6577,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>211</v>
       </c>
@@ -6595,7 +6606,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>212</v>
       </c>
@@ -6624,7 +6635,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>213</v>
       </c>
@@ -6653,7 +6664,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -6682,7 +6693,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>215</v>
       </c>
@@ -6711,7 +6722,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>216</v>
       </c>
@@ -6740,7 +6751,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>217</v>
       </c>
@@ -6769,7 +6780,7 @@
         <v>-2.33333333333333E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>218</v>
       </c>
@@ -6798,7 +6809,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>219</v>
       </c>
@@ -6827,7 +6838,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>220</v>
       </c>
@@ -6856,7 +6867,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>221</v>
       </c>
@@ -6885,7 +6896,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>222</v>
       </c>
@@ -6914,7 +6925,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>223</v>
       </c>
@@ -6943,7 +6954,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>224</v>
       </c>
@@ -6972,7 +6983,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>225</v>
       </c>
@@ -7001,7 +7012,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>226</v>
       </c>
@@ -7030,7 +7041,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>227</v>
       </c>
@@ -7059,7 +7070,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>228</v>
       </c>
@@ -7088,7 +7099,7 @@
         <v>-2.6666666666666599E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>229</v>
       </c>
@@ -7117,7 +7128,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>230</v>
       </c>
@@ -7146,7 +7157,7 @@
         <v>-3.16666666666666E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>231</v>
       </c>
@@ -7175,7 +7186,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>232</v>
       </c>
@@ -7204,7 +7215,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>233</v>
       </c>
@@ -7233,7 +7244,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>234</v>
       </c>
@@ -7262,7 +7273,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>235</v>
       </c>
@@ -7291,7 +7302,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>236</v>
       </c>
@@ -7320,7 +7331,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>237</v>
       </c>
@@ -7349,7 +7360,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>238</v>
       </c>
@@ -7378,7 +7389,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>239</v>
       </c>
@@ -7407,7 +7418,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>240</v>
       </c>
@@ -7436,7 +7447,7 @@
         <v>-2.33333333333333E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>241</v>
       </c>
@@ -7465,7 +7476,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>242</v>
       </c>
@@ -7494,7 +7505,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>243</v>
       </c>
@@ -7523,7 +7534,7 @@
         <v>-1.6666666666666601E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>244</v>
       </c>
@@ -7552,7 +7563,7 @@
         <v>-2.1666666666666601E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>245</v>
       </c>
@@ -7581,7 +7592,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>246</v>
       </c>
@@ -7610,7 +7621,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>247</v>
       </c>
@@ -7639,7 +7650,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>248</v>
       </c>
@@ -7668,7 +7679,7 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>249</v>
       </c>
@@ -7697,7 +7708,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>250</v>
       </c>
@@ -7726,7 +7737,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>251</v>
       </c>
@@ -7755,7 +7766,7 @@
         <v>-3.3333333333333298E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>252</v>
       </c>
@@ -7784,7 +7795,7 @@
         <v>-2.8333333333333301E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>253</v>
       </c>
@@ -7813,7 +7824,7 @@
         <v>-1.6666666666666601E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>254</v>
       </c>
@@ -7842,7 +7853,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>255</v>
       </c>
@@ -7871,7 +7882,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>256</v>
       </c>
@@ -7900,7 +7911,7 @@
         <v>-2.1666666666666601E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>257</v>
       </c>
@@ -7929,7 +7940,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>258</v>
       </c>
@@ -7958,7 +7969,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>259</v>
       </c>
@@ -7987,7 +7998,7 @@
         <v>-2.0333333333333301E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>260</v>
       </c>
@@ -8016,7 +8027,7 @@
         <v>-2.73333333333333E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>261</v>
       </c>
@@ -8045,7 +8056,7 @@
         <v>-2.5666666666666602E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
         <v>82</v>
       </c>
@@ -8074,7 +8085,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>262</v>
       </c>
@@ -8103,7 +8114,7 @@
         <v>-3.3999999999999898E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
         <v>263</v>
       </c>
@@ -8132,7 +8143,7 @@
         <v>-2.76666666666666E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
         <v>264</v>
       </c>
@@ -8161,7 +8172,7 @@
         <v>-2.2666666666666599E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>265</v>
       </c>
@@ -8190,7 +8201,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>266</v>
       </c>
@@ -8221,6 +8232,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8228,25 +8244,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8275,7 +8291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -8307,7 +8323,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>72</v>
       </c>
@@ -8336,7 +8352,7 @@
         <v>-2.76666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -8365,7 +8381,7 @@
         <v>-2.6666666666666599E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -8394,7 +8410,7 @@
         <v>-2.5999999999999902E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="8" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>131</v>
       </c>
@@ -8423,7 +8439,7 @@
         <v>-2.5999999999999902E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -8452,7 +8468,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -8481,7 +8497,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -8510,7 +8526,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -8539,7 +8555,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>129</v>
       </c>
@@ -8568,7 +8584,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -8597,7 +8613,7 @@
         <v>-1.8666666666666599E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -8629,36 +8645,36 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:10" s="10" customFormat="1">
+      <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="10">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10">
         <v>5000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="10">
         <v>22.5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="10">
         <v>7100</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>0.1</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11">
         <v>0.118333333333333</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="11">
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -8687,39 +8703,39 @@
         <v>-1.8333333333333299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" s="8" customFormat="1">
+      <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>11.8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>4600</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>10.1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>6500</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="9">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="9">
         <v>0.108333333333333</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="9">
         <v>-1.63333333333333E-2</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8748,7 +8764,7 @@
         <v>-1.36666666666666E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
@@ -8777,7 +8793,7 @@
         <v>-1.23333333333333E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -8806,7 +8822,7 @@
         <v>-1.16666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="8" customFormat="1">
       <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
@@ -8835,7 +8851,7 @@
         <v>-1.1333333333333299E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -8867,7 +8883,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -8896,7 +8912,7 @@
         <v>-9.3333333333333306E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -8925,36 +8941,36 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10" s="8" customFormat="1">
+      <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>4600</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>13.9</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>6000</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="9">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="9">
         <v>0.1</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="9">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -8983,7 +8999,7 @@
         <v>-6.6666666666666602E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -9012,7 +9028,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -9041,7 +9057,7 @@
         <v>-4.3333333333333401E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -9070,7 +9086,7 @@
         <v>-4.3333333333333201E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -9099,7 +9115,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="4" customFormat="1">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
@@ -9128,7 +9144,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -9157,7 +9173,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -9186,7 +9202,7 @@
         <v>-2.3333333333333201E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -9215,7 +9231,7 @@
         <v>-2.3333333333333201E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -9244,7 +9260,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -9273,7 +9289,7 @@
         <v>-6.6666666666666198E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -9302,7 +9318,7 @@
         <v>-6.6666666666666198E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -9331,7 +9347,7 @@
         <v>-3.33333333333324E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>271</v>
       </c>
@@ -9341,6 +9357,11 @@
     <sortCondition ref="I2:I39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9349,18 +9370,18 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="54.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>272</v>
       </c>
@@ -9374,7 +9395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>275</v>
       </c>
@@ -9388,7 +9409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>278</v>
       </c>
@@ -9402,7 +9423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>281</v>
       </c>
@@ -9416,7 +9437,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="4" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>284</v>
       </c>
@@ -9430,7 +9451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>286</v>
       </c>
@@ -9444,7 +9465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -9458,7 +9479,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>292</v>
       </c>
@@ -9472,7 +9493,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>294</v>
       </c>
@@ -9486,7 +9507,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>297</v>
       </c>
@@ -9500,7 +9521,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>299</v>
       </c>
@@ -9514,7 +9535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>301</v>
       </c>
@@ -9528,7 +9549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>303</v>
       </c>
@@ -9542,7 +9563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>306</v>
       </c>
@@ -9556,7 +9577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>309</v>
       </c>
@@ -9570,7 +9591,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>311</v>
       </c>
@@ -9586,5 +9607,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>